--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/SlipMedia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.6.16\St1Share(NAS)\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69972E11-FD04-4493-88D8-1151C5D03B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A783FE80-E292-4560-A0C2-3E12DCAB701C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="90" windowWidth="13290" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -232,10 +232,6 @@
   </si>
   <si>
     <t>借貸別</t>
-  </si>
-  <si>
-    <t>D:借;C:貸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
@@ -344,6 +340,35 @@
   <si>
     <t>AcDate ASC,BatchNo ASC,MediaSeq DESC</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>D:借
+C:貸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T:記
+C:貸</t>
+  </si>
+  <si>
+    <t>R:會
+C:貸</t>
+  </si>
+  <si>
+    <t>D:部
+C:貸</t>
+  </si>
+  <si>
+    <t>S:傳
+C:貸</t>
+  </si>
+  <si>
+    <t>C:成
+C:貸</t>
+  </si>
+  <si>
+    <t>L:最
+C:貸</t>
   </si>
 </sst>
 </file>
@@ -1036,22 +1061,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="7"/>
+    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1091,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="8" t="s">
@@ -1079,20 +1104,20 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>11</v>
       </c>
@@ -1103,7 +1128,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1139,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1150,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1161,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1159,15 +1184,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>12</v>
@@ -1178,7 +1203,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>2</v>
       </c>
@@ -1189,7 +1214,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="25">
         <v>8</v>
@@ -1197,7 +1222,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -1216,7 +1241,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>4</v>
       </c>
@@ -1235,7 +1260,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" s="27" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="27" customFormat="1" ht="81" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>5</v>
       </c>
@@ -1243,7 +1268,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>13</v>
@@ -1253,18 +1278,18 @@
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>6</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>12</v>
@@ -1277,7 +1302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>7</v>
       </c>
@@ -1296,7 +1321,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>8</v>
       </c>
@@ -1315,7 +1340,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>9</v>
       </c>
@@ -1334,7 +1359,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>10</v>
       </c>
@@ -1353,7 +1378,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="33"/>
     </row>
-    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>11</v>
       </c>
@@ -1372,7 +1397,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>12</v>
       </c>
@@ -1391,7 +1416,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="28"/>
     </row>
-    <row r="21" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="27" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>13</v>
       </c>
@@ -1409,18 +1434,18 @@
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>13</v>
@@ -1429,19 +1454,19 @@
         <v>16</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="28"/>
     </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>15</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>12</v>
@@ -1452,15 +1477,15 @@
       <c r="F23" s="20"/>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>16</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>77</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>12</v>
@@ -1471,15 +1496,15 @@
       <c r="F24" s="20"/>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>52</v>
@@ -1490,15 +1515,15 @@
       <c r="F25" s="20"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>18</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>12</v>
@@ -1509,7 +1534,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>19</v>
       </c>
@@ -1530,7 +1555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>20</v>
       </c>
@@ -1553,7 +1578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>21</v>
       </c>
@@ -1574,7 +1599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>22</v>
       </c>
@@ -1618,15 +1643,15 @@
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="90.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="90.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1637,37 +1662,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
